--- a/SinhHoat.xlsx
+++ b/SinhHoat.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="14790" windowHeight="4605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="636" windowWidth="14796" windowHeight="4608" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="thang 3" sheetId="17" r:id="rId1"/>
     <sheet name="thang 4" sheetId="1" r:id="rId2"/>
+    <sheet name="Sinh hoat" sheetId="18" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>Tiền cọc mỗi người sẽ trả lại = số tiền người đó đóng cọc nếu không ở nữa</t>
   </si>
@@ -646,12 +647,36 @@
     (từ 10/5-&gt; 10/6)</t>
     </r>
   </si>
+  <si>
+    <t>Sinh hoạt tháng 5</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Dien giai</t>
+  </si>
+  <si>
+    <t>Don gia</t>
+  </si>
+  <si>
+    <t>So luong</t>
+  </si>
+  <si>
+    <t>Tong tien</t>
+  </si>
+  <si>
+    <t>Ngay</t>
+  </si>
+  <si>
+    <t>Ghi chu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,6 +729,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -873,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1035,6 +1068,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,25 +1386,25 @@
       <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1410,7 +1452,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1455,7 +1497,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1504,7 +1546,7 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1553,7 +1595,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1600,7 +1642,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1649,7 +1691,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1694,7 +1736,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1737,7 +1779,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1780,7 +1822,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1865,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,7 +1914,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,7 +1961,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +2014,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2020,7 +2062,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2107,7 @@
       </c>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2113,7 +2155,7 @@
     <row r="17" spans="1:24" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O17" s="16"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>49</v>
       </c>
@@ -2162,7 +2204,7 @@
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>48</v>
       </c>
@@ -2205,7 +2247,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>58</v>
       </c>
@@ -2251,7 +2293,7 @@
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>50</v>
       </c>
@@ -2288,7 +2330,7 @@
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
         <v>51</v>
       </c>
@@ -2334,7 +2376,7 @@
       </c>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>52</v>
       </c>
@@ -2359,7 +2401,7 @@
       </c>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>53</v>
       </c>
@@ -2386,10 +2428,10 @@
       </c>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:24" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
         <v>44</v>
       </c>
@@ -2422,7 +2464,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>45</v>
       </c>
@@ -2445,7 +2487,7 @@
       </c>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2539,7 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +2579,7 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
         <v>47</v>
       </c>
@@ -2579,7 +2621,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>25</v>
       </c>
@@ -2637,7 +2679,7 @@
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
@@ -2648,7 +2690,7 @@
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>34</v>
       </c>
@@ -2679,7 +2721,7 @@
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
     </row>
-    <row r="35" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -2708,7 +2750,7 @@
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>36</v>
       </c>
@@ -2737,7 +2779,7 @@
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
     </row>
-    <row r="37" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25" t="s">
         <v>55</v>
       </c>
@@ -2771,7 +2813,7 @@
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G38" s="50"/>
       <c r="H38" s="51"/>
       <c r="I38" s="52"/>
@@ -2782,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>40</v>
       </c>
@@ -2804,7 +2846,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:24" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
         <v>41</v>
       </c>
@@ -2822,42 +2864,42 @@
       <c r="M41" s="41"/>
       <c r="N41" s="41"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="17"/>
       <c r="C53" s="8"/>
@@ -2873,7 +2915,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="17"/>
       <c r="C54" s="8"/>
@@ -2889,7 +2931,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="17"/>
       <c r="C55" s="8"/>
@@ -2905,7 +2947,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="17"/>
       <c r="C56" s="8"/>
@@ -2921,7 +2963,7 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="17"/>
       <c r="C57" s="8"/>
@@ -2937,7 +2979,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="17"/>
       <c r="C58" s="8"/>
@@ -2953,7 +2995,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="17"/>
       <c r="C59" s="8"/>
@@ -2969,7 +3011,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="17"/>
       <c r="C60" s="8"/>
@@ -2985,7 +3027,7 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="17"/>
       <c r="C61" s="8"/>
@@ -3001,7 +3043,7 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="17"/>
       <c r="C62" s="8"/>
@@ -3017,7 +3059,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="17"/>
       <c r="C63" s="8"/>
@@ -3033,7 +3075,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="17"/>
       <c r="C64" s="8"/>
@@ -3049,7 +3091,7 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="17"/>
       <c r="C65" s="8"/>
@@ -3065,7 +3107,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="17"/>
       <c r="C66" s="8"/>
@@ -3081,7 +3123,7 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="17"/>
       <c r="C67" s="8"/>
@@ -3097,7 +3139,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="17"/>
       <c r="C68" s="8"/>
@@ -3113,7 +3155,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="17"/>
       <c r="C69" s="8"/>
@@ -3129,7 +3171,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="17"/>
       <c r="C70" s="8"/>
@@ -3145,7 +3187,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="17"/>
       <c r="C71" s="8"/>
@@ -3161,7 +3203,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="17"/>
       <c r="C72" s="8"/>
@@ -3177,7 +3219,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="17"/>
       <c r="C73" s="8"/>
@@ -3193,7 +3235,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="17"/>
       <c r="C74" s="8"/>
@@ -3209,7 +3251,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="17"/>
       <c r="C75" s="8"/>
@@ -3225,7 +3267,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="17"/>
       <c r="C76" s="8"/>
@@ -3241,7 +3283,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="17"/>
       <c r="C77" s="8"/>
@@ -3257,7 +3299,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="17"/>
       <c r="C78" s="8"/>
@@ -3273,7 +3315,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="17"/>
       <c r="C79" s="8"/>
@@ -3289,7 +3331,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="17"/>
       <c r="C80" s="8"/>
@@ -3305,7 +3347,7 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="17"/>
       <c r="C81" s="8"/>
@@ -3321,7 +3363,7 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="17"/>
       <c r="C82" s="8"/>
@@ -3337,7 +3379,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="17"/>
       <c r="C83" s="8"/>
@@ -3353,7 +3395,7 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="17"/>
       <c r="C84" s="8"/>
@@ -3369,7 +3411,7 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="17"/>
       <c r="C85" s="8"/>
@@ -3385,7 +3427,7 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="17"/>
       <c r="C86" s="8"/>
@@ -3401,7 +3443,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="17"/>
       <c r="C87" s="8"/>
@@ -3417,7 +3459,7 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="17"/>
       <c r="C88" s="8"/>
@@ -3433,7 +3475,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="17"/>
       <c r="C89" s="8"/>
@@ -3449,7 +3491,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="17"/>
       <c r="C90" s="8"/>
@@ -3465,7 +3507,7 @@
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="17"/>
       <c r="C91" s="8"/>
@@ -3481,7 +3523,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="17"/>
       <c r="C92" s="8"/>
@@ -3497,7 +3539,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="17"/>
       <c r="C93" s="8"/>
@@ -3513,7 +3555,7 @@
       <c r="M93" s="8"/>
       <c r="N93" s="8"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="17"/>
       <c r="C94" s="8"/>
@@ -3529,7 +3571,7 @@
       <c r="M94" s="8"/>
       <c r="N94" s="8"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="17"/>
       <c r="C95" s="8"/>
@@ -3545,7 +3587,7 @@
       <c r="M95" s="8"/>
       <c r="N95" s="8"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="17"/>
       <c r="C96" s="8"/>
@@ -3561,7 +3603,7 @@
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="17"/>
       <c r="C97" s="8"/>
@@ -3577,7 +3619,7 @@
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="17"/>
       <c r="C98" s="8"/>
@@ -3593,7 +3635,7 @@
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="17"/>
       <c r="C99" s="8"/>
@@ -3609,7 +3651,7 @@
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="17"/>
       <c r="C100" s="8"/>
@@ -3625,7 +3667,7 @@
       <c r="M100" s="8"/>
       <c r="N100" s="8"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="17"/>
       <c r="C101" s="8"/>
@@ -3641,7 +3683,7 @@
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="17"/>
       <c r="C102" s="8"/>
@@ -3685,29 +3727,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" customWidth="1"/>
+    <col min="6" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -3757,7 +3799,7 @@
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3810,7 +3852,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3863,7 +3905,7 @@
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -3916,7 +3958,7 @@
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -3967,7 +4009,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -4020,7 +4062,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4071,7 +4113,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
@@ -4122,7 +4164,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -4165,7 +4207,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,7 +4250,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -4259,7 +4301,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -4315,7 +4357,7 @@
     <row r="13" spans="1:20" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>68</v>
       </c>
@@ -4364,7 +4406,7 @@
       </c>
       <c r="O14" s="37"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>69</v>
       </c>
@@ -4413,7 +4455,7 @@
       </c>
       <c r="O15" s="37"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>74</v>
       </c>
@@ -4459,7 +4501,7 @@
       </c>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
         <v>80</v>
       </c>
@@ -4505,7 +4547,7 @@
       </c>
       <c r="O17" s="37"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>52</v>
       </c>
@@ -4531,10 +4573,10 @@
       </c>
       <c r="O18" s="37"/>
     </row>
-    <row r="19" spans="1:24" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O19" s="37"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>76</v>
       </c>
@@ -4571,7 +4613,7 @@
       </c>
       <c r="O20" s="37"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>46</v>
       </c>
@@ -4617,7 +4659,7 @@
       <c r="W22" s="10"/>
       <c r="X22" s="10"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>25</v>
       </c>
@@ -4675,7 +4717,7 @@
       <c r="W23" s="10"/>
       <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -4686,7 +4728,7 @@
       <c r="W24" s="10"/>
       <c r="X24" s="10"/>
     </row>
-    <row r="25" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="66" t="s">
         <v>70</v>
       </c>
@@ -4724,7 +4766,7 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="66" t="s">
         <v>71</v>
       </c>
@@ -4760,7 +4802,7 @@
       <c r="W26" s="10"/>
       <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="66" t="s">
         <v>72</v>
       </c>
@@ -4792,7 +4834,7 @@
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
     </row>
-    <row r="28" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39" t="s">
         <v>73</v>
       </c>
@@ -4826,7 +4868,7 @@
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="50"/>
       <c r="H29" s="51"/>
       <c r="I29" s="52"/>
@@ -4840,7 +4882,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
     </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>77</v>
       </c>
@@ -4868,7 +4910,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:24" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
         <v>78</v>
       </c>
@@ -4886,42 +4928,42 @@
       <c r="M32" s="41"/>
       <c r="N32" s="41"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="17"/>
       <c r="C44" s="8"/>
@@ -4937,7 +4979,7 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="17"/>
       <c r="C45" s="8"/>
@@ -4953,7 +4995,7 @@
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="17"/>
       <c r="C46" s="8"/>
@@ -4969,7 +5011,7 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="17"/>
       <c r="C47" s="8"/>
@@ -4985,7 +5027,7 @@
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="17"/>
       <c r="C48" s="8"/>
@@ -5001,7 +5043,7 @@
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="17"/>
       <c r="C49" s="8"/>
@@ -5017,7 +5059,7 @@
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="17"/>
       <c r="C50" s="8"/>
@@ -5033,7 +5075,7 @@
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="17"/>
       <c r="C51" s="8"/>
@@ -5049,7 +5091,7 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="17"/>
       <c r="C52" s="8"/>
@@ -5065,7 +5107,7 @@
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="17"/>
       <c r="C53" s="8"/>
@@ -5081,7 +5123,7 @@
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="17"/>
       <c r="C54" s="8"/>
@@ -5097,7 +5139,7 @@
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="17"/>
       <c r="C55" s="8"/>
@@ -5113,7 +5155,7 @@
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="17"/>
       <c r="C56" s="8"/>
@@ -5129,7 +5171,7 @@
       <c r="M56" s="8"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="17"/>
       <c r="C57" s="8"/>
@@ -5145,7 +5187,7 @@
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="17"/>
       <c r="C58" s="8"/>
@@ -5161,7 +5203,7 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="17"/>
       <c r="C59" s="8"/>
@@ -5177,7 +5219,7 @@
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="17"/>
       <c r="C60" s="8"/>
@@ -5193,7 +5235,7 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="17"/>
       <c r="C61" s="8"/>
@@ -5209,7 +5251,7 @@
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="17"/>
       <c r="C62" s="8"/>
@@ -5225,7 +5267,7 @@
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="17"/>
       <c r="C63" s="8"/>
@@ -5241,7 +5283,7 @@
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="17"/>
       <c r="C64" s="8"/>
@@ -5257,7 +5299,7 @@
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="17"/>
       <c r="C65" s="8"/>
@@ -5273,7 +5315,7 @@
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="17"/>
       <c r="C66" s="8"/>
@@ -5289,7 +5331,7 @@
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="17"/>
       <c r="C67" s="8"/>
@@ -5305,7 +5347,7 @@
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="17"/>
       <c r="C68" s="8"/>
@@ -5321,7 +5363,7 @@
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="17"/>
       <c r="C69" s="8"/>
@@ -5337,7 +5379,7 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="17"/>
       <c r="C70" s="8"/>
@@ -5353,7 +5395,7 @@
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="17"/>
       <c r="C71" s="8"/>
@@ -5369,7 +5411,7 @@
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="17"/>
       <c r="C72" s="8"/>
@@ -5385,7 +5427,7 @@
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="17"/>
       <c r="C73" s="8"/>
@@ -5401,7 +5443,7 @@
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="17"/>
       <c r="C74" s="8"/>
@@ -5417,7 +5459,7 @@
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="17"/>
       <c r="C75" s="8"/>
@@ -5433,7 +5475,7 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="17"/>
       <c r="C76" s="8"/>
@@ -5449,7 +5491,7 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="17"/>
       <c r="C77" s="8"/>
@@ -5465,7 +5507,7 @@
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="17"/>
       <c r="C78" s="8"/>
@@ -5481,7 +5523,7 @@
       <c r="M78" s="8"/>
       <c r="N78" s="8"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="17"/>
       <c r="C79" s="8"/>
@@ -5497,7 +5539,7 @@
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="17"/>
       <c r="C80" s="8"/>
@@ -5513,7 +5555,7 @@
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="17"/>
       <c r="C81" s="8"/>
@@ -5529,7 +5571,7 @@
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="17"/>
       <c r="C82" s="8"/>
@@ -5545,7 +5587,7 @@
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="17"/>
       <c r="C83" s="8"/>
@@ -5561,7 +5603,7 @@
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="17"/>
       <c r="C84" s="8"/>
@@ -5577,7 +5619,7 @@
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="17"/>
       <c r="C85" s="8"/>
@@ -5593,7 +5635,7 @@
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="17"/>
       <c r="C86" s="8"/>
@@ -5609,7 +5651,7 @@
       <c r="M86" s="8"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="17"/>
       <c r="C87" s="8"/>
@@ -5625,7 +5667,7 @@
       <c r="M87" s="8"/>
       <c r="N87" s="8"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="17"/>
       <c r="C88" s="8"/>
@@ -5641,7 +5683,7 @@
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="17"/>
       <c r="C89" s="8"/>
@@ -5657,7 +5699,7 @@
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="17"/>
       <c r="C90" s="8"/>
@@ -5673,7 +5715,7 @@
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="17"/>
       <c r="C91" s="8"/>
@@ -5689,7 +5731,7 @@
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="17"/>
       <c r="C92" s="8"/>
@@ -5705,7 +5747,7 @@
       <c r="M92" s="8"/>
       <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="17"/>
       <c r="C93" s="8"/>
@@ -5743,4 +5785,422 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="71">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="71">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="71">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="71">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="71">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="71">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="71">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="71">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="71">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="71">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="71">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="71">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="71">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="71">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="71">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="71">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="71">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="71">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="71">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="71">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="71">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="71">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="71">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="71">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="71">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="71">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="71">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="71">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="71">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="71">
+        <v>31</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="71">
+        <v>32</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="71"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>